--- a/스프링부트 미니프로젝트.xlsx
+++ b/스프링부트 미니프로젝트.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\SpringBootMiniProject\SpringProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7578C7A-F6A2-417C-9050-663F984E2C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F41D5CF-CBE7-4CE3-BB94-8E92B54DB6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{07553C77-A538-4A79-A5DB-945824B22611}"/>
   </bookViews>
   <sheets>
-    <sheet name=" API" sheetId="1" r:id="rId1"/>
+    <sheet name="API" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
   <si>
     <t>공통 API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ex) /admin/addCrop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>계정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,34 +234,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/products</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/crops</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/crops/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/enable/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/disable/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMOVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PUT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,14 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/products/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex) /admin/products</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ex) /common/products</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,6 +283,82 @@
   </si>
   <si>
     <t>/address/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crops/enable/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crops/disable/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) /admin/crops</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/shop/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고 관리 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crops/addCrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/crops/deleteCrop/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농작물 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농작물 추가 html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) /admin/shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 목록 조회(관리자 전용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/shop/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/shop/addItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/shop/item/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록 html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,12 +487,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,20 +500,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,140 +849,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6D0789-BB1D-4D96-9FBF-EAA3B2954AEC}">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:O54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.125" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>32</v>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -953,7 +990,7 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -964,386 +1001,443 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="27" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
         <v>43</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>21</v>
       </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C34" s="7"/>
-    </row>
-    <row r="37" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-    </row>
-    <row r="40" spans="1:15" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+    <row r="46" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B47" t="s">
         <v>34</v>
       </c>
-      <c r="B42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="C47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
+      <c r="A52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1351,7 +1445,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:O3"/>
     <mergeCell ref="A15:O17"/>
-    <mergeCell ref="A37:O39"/>
+    <mergeCell ref="A42:O44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
